--- a/artfynd/A 38880-2020.xlsx
+++ b/artfynd/A 38880-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,6 +936,1022 @@
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112223193</v>
+      </c>
+      <c r="B4" t="n">
+        <v>57588</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>208242</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mindre vattensalamander</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Lissotriton vulgaris</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>i vatten/simmande</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Nynäs, Srm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>636408</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6524025</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Trosa</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Västerljung</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Hanar i lekdräkt.</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112223184</v>
+      </c>
+      <c r="B5" t="n">
+        <v>57578</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>208250</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Åkergroda</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Rana arvalis</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nilsson, 1842</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>äggklumpar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>ägg</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Nynäs, Srm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>636399</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6523963</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Trosa</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Västerljung</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Romklump. Troligen åkergroda som förekommer i närliggande dammar.</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112223188</v>
+      </c>
+      <c r="B6" t="n">
+        <v>57588</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>208242</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mindre vattensalamander</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lissotriton vulgaris</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>i vatten/simmande</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Nynäs, Srm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>636399</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6523963</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Trosa</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Västerljung</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112223196</v>
+      </c>
+      <c r="B7" t="n">
+        <v>57588</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>208242</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mindre vattensalamander</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Lissotriton vulgaris</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>i vatten/simmande</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Nynäs, Srm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>636422</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6523909</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Trosa</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Västerljung</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Hane i lekdräkt.</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112223203</v>
+      </c>
+      <c r="B8" t="n">
+        <v>57578</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>208250</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Åkergroda</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Rana arvalis</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nilsson, 1842</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Nynäs, Srm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>636549</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6523814</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Trosa</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Västerljung</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Observerad med ljud.</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112223201</v>
+      </c>
+      <c r="B9" t="n">
+        <v>57552</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>208245</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vanlig padda</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Bufo bufo</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Nynäs, Srm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>636549</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6523814</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Trosa</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Västerljung</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Två hanar observerade med ljud och visuellt.</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112223199</v>
+      </c>
+      <c r="B10" t="n">
+        <v>57552</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>208245</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vanlig padda</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Bufo bufo</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Nynäs, Srm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>636422</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6523909</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Trosa</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Västerljung</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Observerad med ljud.</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 38880-2020.xlsx
+++ b/artfynd/A 38880-2020.xlsx
@@ -938,10 +938,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112223193</v>
+        <v>112223199</v>
       </c>
       <c r="B4" t="n">
-        <v>57588</v>
+        <v>57584</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>208242</v>
+        <v>208245</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lissotriton vulgaris</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>i vatten/simmande</t>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>636408</v>
+        <v>636422</v>
       </c>
       <c r="R4" t="n">
-        <v>6524025</v>
+        <v>6523909</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Hanar i lekdräkt.</t>
+          <t>Observerad med ljud.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1085,10 +1085,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112223184</v>
+        <v>112223196</v>
       </c>
       <c r="B5" t="n">
-        <v>57578</v>
+        <v>57620</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1101,21 +1101,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>208250</v>
+        <v>208242</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Lissotriton vulgaris</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1125,16 +1125,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>äggklumpar</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ägg</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>i vatten/simmande</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>observerad</t>
@@ -1146,10 +1154,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>636399</v>
+        <v>636422</v>
       </c>
       <c r="R5" t="n">
-        <v>6523963</v>
+        <v>6523909</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1181,7 +1189,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1191,12 +1199,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Romklump. Troligen åkergroda som förekommer i närliggande dammar.</t>
+          <t>Hane i lekdräkt.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1224,10 +1232,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112223188</v>
+        <v>112223184</v>
       </c>
       <c r="B6" t="n">
-        <v>57588</v>
+        <v>57610</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1240,21 +1248,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>208242</v>
+        <v>208250</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lissotriton vulgaris</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1264,24 +1272,16 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>ex.</t>
+          <t>äggklumpar</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>i vatten/simmande</t>
-        </is>
-      </c>
+          <t>ägg</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>observerad</t>
@@ -1339,6 +1339,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>20:20</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Romklump. Troligen åkergroda som förekommer i närliggande dammar.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1366,10 +1371,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112223196</v>
+        <v>112223188</v>
       </c>
       <c r="B7" t="n">
-        <v>57588</v>
+        <v>57620</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1435,10 +1440,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>636422</v>
+        <v>636399</v>
       </c>
       <c r="R7" t="n">
-        <v>6523909</v>
+        <v>6523963</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1470,7 +1475,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1480,12 +1485,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Hane i lekdräkt.</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1513,10 +1513,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112223203</v>
+        <v>112223201</v>
       </c>
       <c r="B8" t="n">
-        <v>57578</v>
+        <v>57584</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1529,26 +1529,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>208250</v>
+        <v>208245</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Observerad med ljud.</t>
+          <t>Två hanar observerade med ljud och visuellt.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1660,10 +1660,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112223201</v>
+        <v>112223193</v>
       </c>
       <c r="B9" t="n">
-        <v>57552</v>
+        <v>57620</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1676,16 +1676,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>208245</v>
+        <v>208242</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Lissotriton vulgaris</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>spel/sång</t>
+          <t>i vatten/simmande</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1729,10 +1729,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>636549</v>
+        <v>636408</v>
       </c>
       <c r="R9" t="n">
-        <v>6523814</v>
+        <v>6524025</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Två hanar observerade med ljud och visuellt.</t>
+          <t>Hanar i lekdräkt.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1807,10 +1807,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112223199</v>
+        <v>112223203</v>
       </c>
       <c r="B10" t="n">
-        <v>57552</v>
+        <v>57610</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1823,21 +1823,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>208245</v>
+        <v>208250</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1876,10 +1876,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>636422</v>
+        <v>636549</v>
       </c>
       <c r="R10" t="n">
-        <v>6523909</v>
+        <v>6523814</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">

--- a/artfynd/A 38880-2020.xlsx
+++ b/artfynd/A 38880-2020.xlsx
@@ -938,7 +938,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112223199</v>
+        <v>112223201</v>
       </c>
       <c r="B4" t="n">
         <v>57584</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>636422</v>
+        <v>636549</v>
       </c>
       <c r="R4" t="n">
-        <v>6523909</v>
+        <v>6523814</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Observerad med ljud.</t>
+          <t>Två hanar observerade med ljud och visuellt.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1085,7 +1085,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112223196</v>
+        <v>112223193</v>
       </c>
       <c r="B5" t="n">
         <v>57620</v>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>636422</v>
+        <v>636408</v>
       </c>
       <c r="R5" t="n">
-        <v>6523909</v>
+        <v>6524025</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Hane i lekdräkt.</t>
+          <t>Hanar i lekdräkt.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1232,7 +1232,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112223184</v>
+        <v>112223203</v>
       </c>
       <c r="B6" t="n">
         <v>57610</v>
@@ -1272,16 +1272,24 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>äggklumpar</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>ägg</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>observerad</t>
@@ -1293,10 +1301,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>636399</v>
+        <v>636549</v>
       </c>
       <c r="R6" t="n">
-        <v>6523963</v>
+        <v>6523814</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1328,7 +1336,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1338,12 +1346,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Romklump. Troligen åkergroda som förekommer i närliggande dammar.</t>
+          <t>Observerad med ljud.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1371,10 +1379,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112223188</v>
+        <v>112223199</v>
       </c>
       <c r="B7" t="n">
-        <v>57620</v>
+        <v>57584</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1387,16 +1395,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>208242</v>
+        <v>208245</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lissotriton vulgaris</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1426,7 +1434,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>i vatten/simmande</t>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1440,10 +1448,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>636399</v>
+        <v>636422</v>
       </c>
       <c r="R7" t="n">
-        <v>6523963</v>
+        <v>6523909</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1475,7 +1483,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1485,7 +1493,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Observerad med ljud.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1513,10 +1526,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112223201</v>
+        <v>112223196</v>
       </c>
       <c r="B8" t="n">
-        <v>57584</v>
+        <v>57620</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1529,16 +1542,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>208245</v>
+        <v>208242</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Lissotriton vulgaris</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1548,7 +1561,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1568,7 +1581,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>spel/sång</t>
+          <t>i vatten/simmande</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1582,10 +1595,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>636549</v>
+        <v>636422</v>
       </c>
       <c r="R8" t="n">
-        <v>6523814</v>
+        <v>6523909</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1617,7 +1630,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1627,12 +1640,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Två hanar observerade med ljud och visuellt.</t>
+          <t>Hane i lekdräkt.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1660,7 +1673,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112223193</v>
+        <v>112223188</v>
       </c>
       <c r="B9" t="n">
         <v>57620</v>
@@ -1695,7 +1708,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1729,10 +1742,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>636408</v>
+        <v>636399</v>
       </c>
       <c r="R9" t="n">
-        <v>6524025</v>
+        <v>6523963</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1764,7 +1777,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1774,12 +1787,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Hanar i lekdräkt.</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1807,7 +1815,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112223203</v>
+        <v>112223184</v>
       </c>
       <c r="B10" t="n">
         <v>57610</v>
@@ -1847,24 +1855,16 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ex.</t>
+          <t>äggklumpar</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>ägg</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>observerad</t>
@@ -1876,10 +1876,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>636549</v>
+        <v>636399</v>
       </c>
       <c r="R10" t="n">
-        <v>6523814</v>
+        <v>6523963</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1921,12 +1921,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Observerad med ljud.</t>
+          <t>Romklump. Troligen åkergroda som förekommer i närliggande dammar.</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 38880-2020.xlsx
+++ b/artfynd/A 38880-2020.xlsx
@@ -938,10 +938,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112223201</v>
+        <v>112223188</v>
       </c>
       <c r="B4" t="n">
-        <v>57584</v>
+        <v>57620</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>208245</v>
+        <v>208242</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Lissotriton vulgaris</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>spel/sång</t>
+          <t>i vatten/simmande</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>636549</v>
+        <v>636399</v>
       </c>
       <c r="R4" t="n">
-        <v>6523814</v>
+        <v>6523963</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1052,12 +1052,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Två hanar observerade med ljud och visuellt.</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1085,10 +1080,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112223193</v>
+        <v>112223201</v>
       </c>
       <c r="B5" t="n">
-        <v>57620</v>
+        <v>57584</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1101,16 +1096,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>208242</v>
+        <v>208245</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lissotriton vulgaris</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1120,7 +1115,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1140,7 +1135,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>i vatten/simmande</t>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1154,10 +1149,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>636408</v>
+        <v>636549</v>
       </c>
       <c r="R5" t="n">
-        <v>6524025</v>
+        <v>6523814</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1189,7 +1184,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1199,12 +1194,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Hanar i lekdräkt.</t>
+          <t>Två hanar observerade med ljud och visuellt.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1673,7 +1668,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112223188</v>
+        <v>112223193</v>
       </c>
       <c r="B9" t="n">
         <v>57620</v>
@@ -1708,7 +1703,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1742,10 +1737,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>636399</v>
+        <v>636408</v>
       </c>
       <c r="R9" t="n">
-        <v>6523963</v>
+        <v>6524025</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1777,7 +1772,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1787,7 +1782,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Hanar i lekdräkt.</t>
         </is>
       </c>
       <c r="AD9" t="b">
